--- a/instances/instancePolandV2.xlsx
+++ b/instances/instancePolandV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Employees"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>TaskId</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>20.7468738</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>EmployeeName</t>
@@ -258,13 +261,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -274,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -306,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -314,37 +323,61 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -651,50 +684,50 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>76</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="9">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12">
         <v>53.8848237127035</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="12">
         <v>22.047724047618</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -703,7 +736,7 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -712,12 +745,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="9">
+        <v>78</v>
+      </c>
+      <c r="B3" s="12">
         <v>53.2833826159413</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>20.7480904791913</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -726,7 +759,7 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -735,29 +768,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="1"/>
     </row>
   </sheetData>
@@ -777,20 +810,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -802,19 +835,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="9">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12">
         <v>53.8848237127035</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="12">
         <v>22.047724047618</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -829,16 +862,16 @@
   </sheetPr>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="12.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="12.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="11.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
@@ -869,7 +902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -895,7 +928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -921,7 +954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -947,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -973,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -999,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1051,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1077,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1103,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1129,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1155,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1181,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1207,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1259,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1285,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -1311,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1337,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -1363,13 +1396,15 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
@@ -1377,9 +1412,9 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
@@ -1387,9 +1422,9 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
@@ -1397,9 +1432,9 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -1407,9 +1442,9 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -1417,9 +1452,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -1427,9 +1462,9 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
@@ -1437,9 +1472,9 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1447,9 +1482,9 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -1457,9 +1492,9 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -1467,9 +1502,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
@@ -1477,9 +1512,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -1487,9 +1522,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -1497,9 +1532,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -1507,9 +1542,9 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
@@ -1517,9 +1552,9 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1527,9 +1562,9 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -1537,9 +1572,9 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -1547,9 +1582,9 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -1557,9 +1592,9 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -1567,9 +1602,9 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -1577,9 +1612,9 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -1587,9 +1622,9 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
@@ -1597,9 +1632,9 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -1607,9 +1642,9 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -1617,9 +1652,9 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -1627,9 +1662,9 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
@@ -1637,9 +1672,9 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -1647,9 +1682,9 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -1657,9 +1692,9 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="8"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -1667,9 +1702,9 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -1677,9 +1712,9 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -1687,9 +1722,9 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -1697,9 +1732,9 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -1707,9 +1742,9 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -1717,9 +1752,9 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -1727,9 +1762,9 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -1737,9 +1772,9 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -1747,9 +1782,9 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
@@ -1757,9 +1792,9 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -1767,9 +1802,9 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -1777,9 +1812,9 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -1787,9 +1822,9 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
@@ -1797,9 +1832,9 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
@@ -1807,9 +1842,9 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
@@ -1817,9 +1852,9 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
@@ -1827,9 +1862,9 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
@@ -1837,9 +1872,9 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
@@ -1847,9 +1882,9 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="7"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
@@ -1857,9 +1892,9 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
@@ -1867,9 +1902,9 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
@@ -1877,9 +1912,9 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
@@ -1887,9 +1922,9 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
@@ -1897,9 +1932,9 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
@@ -1907,9 +1942,9 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
@@ -1917,9 +1952,9 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="7"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
@@ -1927,9 +1962,9 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
@@ -1937,9 +1972,9 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
@@ -1947,9 +1982,9 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
@@ -1957,9 +1992,9 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
@@ -1967,9 +2002,9 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
@@ -1977,9 +2012,9 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="7"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
@@ -1987,9 +2022,9 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="7"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
@@ -1997,9 +2032,9 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
@@ -2007,9 +2042,9 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
@@ -2017,9 +2052,9 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="7"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
@@ -2027,9 +2062,9 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
@@ -2037,9 +2072,9 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="7"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
@@ -2047,9 +2082,9 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="7"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
@@ -2057,9 +2092,9 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="7"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
@@ -2067,9 +2102,9 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="7"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
@@ -2077,9 +2112,9 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="7"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
@@ -2087,9 +2122,9 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
@@ -2097,9 +2132,9 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="7"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
@@ -2107,9 +2142,9 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="6"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="7"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
@@ -2117,9 +2152,9 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="7"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
@@ -2127,9 +2162,9 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
+      <c r="F97" s="7"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
@@ -2137,9 +2172,9 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="7"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
@@ -2147,9 +2182,9 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="7"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
@@ -2157,9 +2192,9 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="6"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="7"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
@@ -2167,9 +2202,9 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="6"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="7"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
@@ -2177,9 +2212,9 @@
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
+      <c r="F102" s="7"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
@@ -2187,9 +2222,9 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="6"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="7"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
@@ -2197,9 +2232,9 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="7"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
@@ -2207,9 +2242,9 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="7"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
@@ -2217,9 +2252,9 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="6"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="7"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
@@ -2227,9 +2262,9 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="6"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="7"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
@@ -2237,9 +2272,9 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="7"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
@@ -2247,9 +2282,9 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="7"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
@@ -2257,9 +2292,9 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="7"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
@@ -2267,9 +2302,9 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="6"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="7"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
@@ -2277,9 +2312,9 @@
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="6"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="7"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
@@ -2287,9 +2322,9 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="6"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="7"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
@@ -2297,9 +2332,9 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="6"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="7"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
@@ -2307,9 +2342,9 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="3"/>
+      <c r="F115" s="7"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
@@ -2317,9 +2352,9 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="3"/>
+      <c r="F116" s="7"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
@@ -2327,9 +2362,9 @@
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="6"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="3"/>
+      <c r="F117" s="7"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
@@ -2337,9 +2372,9 @@
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="3"/>
+      <c r="F118" s="7"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
@@ -2347,9 +2382,9 @@
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="6"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="7"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
@@ -2357,9 +2392,9 @@
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="6"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="7"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
@@ -2367,9 +2402,9 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="6"/>
+      <c r="D121" s="8"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="7"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
@@ -2377,9 +2412,9 @@
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="6"/>
+      <c r="D122" s="8"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="7"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
@@ -2387,9 +2422,9 @@
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="6"/>
+      <c r="D123" s="8"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="7"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
@@ -2397,9 +2432,9 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="6"/>
+      <c r="D124" s="8"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="3"/>
+      <c r="F124" s="7"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
@@ -2407,9 +2442,9 @@
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="6"/>
+      <c r="D125" s="8"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="7"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
@@ -2417,9 +2452,9 @@
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="8"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="3"/>
+      <c r="F126" s="7"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
@@ -2427,9 +2462,9 @@
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="6"/>
+      <c r="D127" s="8"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="3"/>
+      <c r="F127" s="7"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
@@ -2437,9 +2472,9 @@
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="6"/>
+      <c r="D128" s="8"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="7"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
@@ -2447,9 +2482,9 @@
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="6"/>
+      <c r="D129" s="8"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="7"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
@@ -2457,9 +2492,9 @@
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="6"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="3"/>
+      <c r="F130" s="7"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
